--- a/GameJam-wy2023/Plugins/LuBan/Configs/Datas/item.xlsx
+++ b/GameJam-wy2023/Plugins/LuBan/Configs/Datas/item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22782" windowHeight="12257"/>
+    <workbookView windowWidth="22782" windowHeight="12608"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>##var</t>
   </si>
@@ -76,6 +76,127 @@
   </si>
   <si>
     <t>灵魂药剂</t>
+  </si>
+  <si>
+    <t>用于补充灵魂点的神秘药剂，据传说是由一位隐秘的巫师所创造。这位巫师据说能够将人的灵魂从身体中分离出来，并将其转移到另一个生命体的身体里。在传说中，这种药剂被用于重要的神秘仪式。</t>
+  </si>
+  <si>
+    <t>钥匙</t>
+  </si>
+  <si>
+    <t>实验室钥匙</t>
+  </si>
+  <si>
+    <t>用于开启实验室大门的钥匙。</t>
+  </si>
+  <si>
+    <t>地图</t>
+  </si>
+  <si>
+    <t>实验室的地图</t>
+  </si>
+  <si>
+    <t>一张地图。</t>
+  </si>
+  <si>
+    <t>信函</t>
+  </si>
+  <si>
+    <t>内容：前往黑暗之城调查一起神秘事件。</t>
+  </si>
+  <si>
+    <t>文件</t>
+  </si>
+  <si>
+    <t>文件01</t>
+  </si>
+  <si>
+    <t>事件记录-01</t>
+  </si>
+  <si>
+    <t>文件02</t>
+  </si>
+  <si>
+    <t>事件记录-02</t>
+  </si>
+  <si>
+    <t>文件03</t>
+  </si>
+  <si>
+    <t>事件记录-03</t>
+  </si>
+  <si>
+    <t>乐章</t>
+  </si>
+  <si>
+    <t>失落之岛·其二</t>
+  </si>
+  <si>
+    <t>集齐3页后，可以合成《失落之岛》。
+轻风中飘摇的残页，似乎是从一本老旧的乐章中脱落的。
+或许在其他地方找到更多的乐章残页的话，能凑齐一本完整的乐章也未可知…？</t>
+  </si>
+  <si>
+    <t>宝石</t>
+  </si>
+  <si>
+    <t>唯一在城市中闪闪发光的物品，收集十枚可以与特里交易获得珍贵道具。</t>
+  </si>
+  <si>
+    <t>万能钥匙</t>
+  </si>
+  <si>
+    <t>特里的…传家宝？
+可打开任意门</t>
+  </si>
+  <si>
+    <t>失落之岛·其一</t>
+  </si>
+  <si>
+    <t>失落之岛·其三</t>
+  </si>
+  <si>
+    <t>灵魂之石·其三</t>
+  </si>
+  <si>
+    <t>集齐3页后，可以合成《灵魂之石》。
+轻风中飘摇的残页，似乎是从一本老旧的乐章中脱落的。
+或许在其他地方找到更多的乐章残页的话，能凑齐一本完整的乐章也未可知…？</t>
+  </si>
+  <si>
+    <t>灵魂之石·其二</t>
+  </si>
+  <si>
+    <t>灵魂之石·其一</t>
+  </si>
+  <si>
+    <t>希望·其一</t>
+  </si>
+  <si>
+    <t>集齐3页后，可以合成《希望》。
+轻风中飘摇的残页，似乎是从一本老旧的乐章中脱落的。
+或许在其他地方找到更多的乐章残页的话，能凑齐一本完整的乐章也未可知…？</t>
+  </si>
+  <si>
+    <t>希望·其二</t>
+  </si>
+  <si>
+    <t>希望·其三</t>
+  </si>
+  <si>
+    <t>未知</t>
+  </si>
+  <si>
+    <t>石板</t>
+  </si>
+  <si>
+    <t>一块古老的石板。</t>
+  </si>
+  <si>
+    <t>管理员卡片</t>
+  </si>
+  <si>
+    <t>拥有管理员权限的卡片，可以读取“灵魂之石”的数据。</t>
   </si>
 </sst>
 </file>
@@ -720,7 +841,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1133,17 +1254,17 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
-    <col min="2" max="2" width="13.5585585585586" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.5585585585586" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.5585585585586" customWidth="1"/>
     <col min="4" max="4" width="15.2162162162162" customWidth="1"/>
-    <col min="5" max="5" width="21.7747747747748" customWidth="1"/>
+    <col min="5" max="5" width="21.7747747747748" style="3" customWidth="1"/>
     <col min="6" max="6" width="13.3513513513514" customWidth="1"/>
-    <col min="7" max="7" width="13.1261261261261" customWidth="1"/>
+    <col min="7" max="7" width="19.3783783783784" customWidth="1"/>
     <col min="8" max="8" width="9.10810810810811" customWidth="1"/>
     <col min="9" max="10" width="10.3423423423423" customWidth="1"/>
   </cols>
@@ -1226,7 +1347,7 @@
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="14.15" spans="1:7">
+    <row r="4" s="2" customFormat="1" ht="127.3" spans="1:7">
       <c r="A4" s="13"/>
       <c r="B4" s="13">
         <v>0</v>
@@ -1237,7 +1358,9 @@
       <c r="D4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="F4" s="2" t="b">
         <v>1</v>
       </c>
@@ -1245,169 +1368,404 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:7">
+    <row r="5" s="2" customFormat="1" ht="28.3" spans="1:7">
       <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:7">
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="14.15" spans="1:7">
       <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:7">
+      <c r="B6" s="13">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="28.3" spans="1:7">
       <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:7">
+      <c r="B7" s="13">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="14.15" spans="1:7">
       <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:7">
+      <c r="B8" s="13">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="14.15" spans="1:7">
       <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:7">
+      <c r="B9" s="13">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="14.15" spans="1:7">
       <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:7">
+      <c r="B10" s="13">
+        <v>6</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="141" spans="1:7">
       <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:7">
+      <c r="B11" s="13">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="56.55" spans="1:7">
       <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:7">
+      <c r="B12" s="13">
+        <v>8</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="42.45" spans="1:7">
       <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:7">
+      <c r="B13" s="13">
+        <v>9</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="141" spans="1:7">
       <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="1:7">
+      <c r="B14" s="13">
+        <v>10</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="141" spans="1:7">
       <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:7">
+      <c r="B15" s="13">
+        <v>11</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="141" spans="1:7">
       <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:7">
+      <c r="B16" s="13">
+        <v>12</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="141" spans="1:7">
       <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="1:7">
+      <c r="B17" s="13">
+        <v>13</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="141" spans="1:7">
       <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="1:7">
+      <c r="B18" s="13">
+        <v>14</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="141" spans="1:7">
       <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="1:7">
+      <c r="B19" s="13">
+        <v>15</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="141" spans="1:7">
       <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:7">
+      <c r="B20" s="13">
+        <v>16</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="141" spans="1:7">
       <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="13"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="1:7">
+      <c r="B21" s="13">
+        <v>17</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="14.15" spans="1:7">
       <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="13"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="1:7">
+      <c r="B22" s="13">
+        <v>18</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="42.45" spans="1:7">
       <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="G23" s="15"/>
+      <c r="B23" s="13">
+        <v>19</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:7">
       <c r="A24" s="13"/>
@@ -1595,24 +1953,22 @@
     <row r="55" s="2" customFormat="1" spans="3:3">
       <c r="C55" s="21"/>
     </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="2"/>
+    <row r="56" spans="3:3">
       <c r="C56" s="21"/>
     </row>
-    <row r="57" spans="2:3">
-      <c r="B57" s="2"/>
+    <row r="57" spans="3:3">
       <c r="C57" s="21"/>
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576 G$1:G$1048576">
+      <formula1>"FALSE,TRUE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+      <formula1>"未知,药剂,文件,钥匙,地图,乐章,信函,宝石"</formula1>
+    </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" promptTitle="id" prompt="物品唯一ID" sqref="B$1:B$1048576">
       <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
-      <formula1>"未知,药剂,文件,钥匙,地图,乐章,信函"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576 G$1:G$1048576">
-      <formula1>"FALSE,TRUE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
